--- a/linux网络安全 .xlsx
+++ b/linux网络安全 .xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="750"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="750" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="表链的概念" sheetId="2" r:id="rId1"/>
@@ -2680,16 +2680,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>400049</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>28574</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>76201</xdr:rowOff>
+      <xdr:rowOff>66676</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2698,7 +2698,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1085849" y="2295525"/>
+          <a:off x="28574" y="2286000"/>
           <a:ext cx="4533901" cy="1381126"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4932,14 +4932,14 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>76201</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>103147</xdr:rowOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>45997</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>266701</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>28574</xdr:rowOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4951,7 +4951,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="10238562" y="2970986"/>
+          <a:off x="10238562" y="4628336"/>
           <a:ext cx="439777" cy="190500"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -5071,14 +5071,14 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>609598</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>47623</xdr:rowOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>161923</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>47624</xdr:rowOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -5087,7 +5087,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6095998" y="2105023"/>
+          <a:off x="6095998" y="3762373"/>
           <a:ext cx="7496177" cy="9086851"/>
           <a:chOff x="7353298" y="6095998"/>
           <a:chExt cx="7496177" cy="9086851"/>
@@ -10336,6 +10336,1542 @@
     </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>495301</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="76" name="矩形 75"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8201025" y="1857375"/>
+          <a:ext cx="1895476" cy="1600200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>DROP   :   </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>丢弃</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>REJECT :   </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>拒绝</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ACCEPT :   </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>接受</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>RETURN :</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1000" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>返回主链继续匹配</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>REDIRECT:  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>端口重定向</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>MASQUERADE :</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>地址伪装</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>DNAT :    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>目标地址转换</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>SNAT </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>：源地址转换</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>MARK </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>：打标签</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1000">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>571499</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="81" name="矩形 80"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4686299" y="2057400"/>
+          <a:ext cx="3257551" cy="942975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>-s | --src | --source [!] IP/NETWORK :</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>源地址</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1000">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>-d </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1000" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> :</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1000" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>目标地址</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1000">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>-i : </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>指定数据报文流入接口 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>input prerouting forward</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>-o :  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>指定数据报文流出接口  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>output postrouting forward</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>-p :  protocol</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1000" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>指定放行的协议</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1000">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>219074</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="174" name="组合 173"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="219074" y="8248650"/>
+          <a:ext cx="4781551" cy="1724025"/>
+          <a:chOff x="438149" y="8582025"/>
+          <a:chExt cx="4781551" cy="1724025"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="87" name="矩形 86"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="438149" y="8582025"/>
+            <a:ext cx="4781551" cy="1666875"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1000">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>//</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1000">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>规则查询信息说明</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1000">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Chain POSTROUTING (policy ACCEPT 5159 packets, 385K bytes)</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1000">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t> pkts       bytes             target         prot   opt    in          out           source               destination                                                                                                                      </a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1000">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>22605     831K     MASQUERADE   all        --     *      wlan1   192.168.8.0/24       0.0.0.0/0   </a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="89" name="直接箭头连接符 88"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="90" idx="0"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="16200000" flipV="1">
+            <a:off x="676276" y="9410699"/>
+            <a:ext cx="276224" cy="276226"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="28575">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:tailEnd type="arrow"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent5"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent5"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent5"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="90" name="矩形 89"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="447676" y="9686924"/>
+            <a:ext cx="1009650" cy="419101"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="900">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>被本机匹配的报文个数</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="112" name="直接箭头连接符 111"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="114" idx="0"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="16200000" flipV="1">
+            <a:off x="1123952" y="9382124"/>
+            <a:ext cx="476249" cy="533401"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="28575">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:tailEnd type="arrow"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent5"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent5"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent5"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="114" name="矩形 113"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1123951" y="9886949"/>
+            <a:ext cx="1009650" cy="419101"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="900">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>所有报文加起来</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="900" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>的大小</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="117" name="直接箭头连接符 116"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="121" idx="0"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="16200000" flipV="1">
+            <a:off x="1835945" y="9451181"/>
+            <a:ext cx="228599" cy="166688"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="28575">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:tailEnd type="arrow"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent5"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent5"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent5"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="121" name="矩形 120"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1676401" y="9648824"/>
+            <a:ext cx="714374" cy="266701"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="900">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>处理机制</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="127" name="直接箭头连接符 126"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="131" idx="0"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="16200000" flipV="1">
+            <a:off x="2181226" y="9534525"/>
+            <a:ext cx="533399" cy="285750"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="28575">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:tailEnd type="arrow"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent5"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent5"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent5"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="131" name="矩形 130"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2066925" y="9944099"/>
+            <a:ext cx="1047750" cy="257176"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="900">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>放行的协议类型</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="147" name="直接箭头连接符 146"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="148" idx="0"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="16200000" flipV="1">
+            <a:off x="2614615" y="9424988"/>
+            <a:ext cx="190496" cy="161925"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="28575">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:tailEnd type="arrow"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent5"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent5"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent5"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="148" name="矩形 147"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2466975" y="9601199"/>
+            <a:ext cx="647700" cy="257176"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="900">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>额外选项</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="152" name="直接箭头连接符 151"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="153" idx="0"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="5400000" flipH="1" flipV="1">
+            <a:off x="3671893" y="9558340"/>
+            <a:ext cx="238117" cy="2"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="28575">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:tailEnd type="arrow"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent5"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent5"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent5"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="153" name="矩形 152"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3514725" y="9677399"/>
+            <a:ext cx="552450" cy="257176"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="900">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>源地址</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="164" name="直接箭头连接符 163"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="165" idx="0"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="16200000" flipV="1">
+            <a:off x="4612482" y="9570243"/>
+            <a:ext cx="200024" cy="33338"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="28575">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:tailEnd type="arrow"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent5"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent5"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent5"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="165" name="矩形 164"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4371975" y="9686924"/>
+            <a:ext cx="714375" cy="257176"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="900">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>目标地址</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -12220,7 +13756,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="U24" sqref="U24"/>
     </sheetView>
   </sheetViews>
@@ -12242,8 +13778,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="I16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H80" sqref="H80"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U56" sqref="U56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/linux网络安全 .xlsx
+++ b/linux网络安全 .xlsx
@@ -4,35 +4,31 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="750" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="750" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="表链的概念" sheetId="2" r:id="rId1"/>
     <sheet name="iptables规则" sheetId="5" r:id="rId2"/>
-    <sheet name="smart_config" sheetId="11" r:id="rId3"/>
+    <sheet name="openssl证书" sheetId="11" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>ICACHE_FLASH_ATTR</t>
   </si>
   <si>
     <t xml:space="preserve"> user_init </t>
   </si>
-  <si>
-    <t>Smart_Config解析</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -42,15 +38,6 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -90,10 +77,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -168,6 +154,9 @@
       <rgbColor rgb="00333399"/>
       <rgbColor rgb="00333333"/>
     </indexedColors>
+    <mruColors>
+      <color rgb="FF08CE2E"/>
+    </mruColors>
   </colors>
 </styleSheet>
 </file>
@@ -11881,13 +11870,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>51289</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>0</xdr:row>
       <xdr:rowOff>79861</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>453258</xdr:colOff>
-      <xdr:row>147</xdr:row>
+      <xdr:row>146</xdr:row>
       <xdr:rowOff>111672</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -11926,416 +11915,739 @@
         <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
         <a:lstStyle/>
         <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" b="1"/>
-            <a:t>smart_config</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" b="1"/>
-            <a:t>工作过程：</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" b="1"/>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="1"/>
+            <a:t>自签名证书</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400" b="1"/>
         </a:p>
         <a:p>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" b="1"/>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="1"/>
+            <a:t>首先，创建一个私钥文件：</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900" b="1"/>
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="1"/>
+            <a:t>openssl genrsa -out </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="1">
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>SC_STATUS_FIND_CHANNEL</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
-            <a:t>TYPE: ESPTOUCH V2.4</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="900">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>SC_STATUS_GETTING_SSID_PSWD</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="900">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>SC_TYPE:SC_TYPE_ESPTOUCH</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
-            <a:t>sc:pkiss head not null</a:t>
+            <a:t>myselfsigned.key</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="1"/>
+            <a:t> 2048</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900"/>
         </a:p>
         <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
-            <a:t>TYPE: ESPTOUCH V2.4</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
-            <a:t>T|PHONE MAC:</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
-            <a:t>T|AP MAC   :</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
-            <a:t>T|SCAN SSID: Access</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
-            <a:t>T|pswd: jackchen110</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
-            <a:t>T|ssid: Access</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
-            <a:t>T|bssid: b8 27 eb 02 af fd </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="900">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>SC_STATUS_LINK</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
-            <a:t>f 0, scandone</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
-            <a:t>add 0</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
-            <a:t>aid 3</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
-            <a:t>pm open phy_2,type:2 0 0</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
-            <a:t>cnt </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
-            <a:t>connected with Access, channel 1</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
-            <a:t>dhcp client start...</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
-            <a:t>ip:192.168.12.220,mask:255.255.255.0,gw:192.168.12.1</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="900">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>SC_STATUS_LINK_OVER</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
-            <a:t>Phone ip: 192.168.12.215</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>78828</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>102849</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>223345</xdr:colOff>
-      <xdr:row>132</xdr:row>
-      <xdr:rowOff>105102</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Text Box 1"/>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="2822028" y="340974"/>
-          <a:ext cx="8374117" cy="22528878"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg2">
-            <a:lumMod val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="FFFF00"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="1" smtClean="0">
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="1">
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>准备工作 ：</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" b="1" smtClean="0">
+            <a:t>然后创建自签名证书：</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900" b="1">
             <a:latin typeface="+mn-lt"/>
             <a:ea typeface="+mn-ea"/>
             <a:cs typeface="+mn-cs"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="1"/>
+            <a:t>openssl req -new -x509 -key </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="1">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>myselfsigned.key</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="1"/>
+            <a:t> -out </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>myselfsigned.cer</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="1"/>
+            <a:t> -days 365 -subj /CN=www.mysite.com</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="800"/>
+            <a:t>上面的命令中，关于私钥和证书</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="800"/>
+            <a:t>(cer)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="800"/>
+            <a:t>的文件名可以是任意的。其中 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="800"/>
+            <a:t>CN </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="800"/>
+            <a:t>参数需要设置为主机名</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="800"/>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="800"/>
+            <a:t>例如 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="800">
+              <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id=""/>
+            </a:rPr>
+            <a:t>https://www.mysite.com</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="800"/>
+            <a:t> )</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="800"/>
+            <a:t>。而 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="800"/>
+            <a:t>days </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="800"/>
+            <a:t>参数则指定证书从创建开始的有效天数</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>。</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="1">
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>1.</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+            <a:t>在</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="1">
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>在</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+            <a:t>Apache</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="1">
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>app\makefile</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+            <a:t>服务器上面可以直接使用私钥和证书文件</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="1">
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>中修改加入</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="1">
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>-lsmartconfig</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+            <a:t>做相关的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="1">
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>2. </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+            <a:t>SSL</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="1">
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>在</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+            <a:t>配置即可</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="1">
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>lib</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+            <a:t>)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="1">
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>中添加</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+            <a:t>。在</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="1">
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>libsmartconfig.a</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+            <a:t>IIS</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="1">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>中需要一个</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="1">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>PFX</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="1">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>文件，通过该文件，可以将证书导入至</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="1">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>IIS</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="1">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="1">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Server Certificates</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="1">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>中。当然通过</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="1">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>OpenSSL</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="1">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>可以创建</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="1">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>PFX</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="1">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>文件：</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900" b="1">
             <a:latin typeface="+mn-lt"/>
             <a:ea typeface="+mn-ea"/>
             <a:cs typeface="+mn-cs"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="1">
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>#include "user_interface.h"</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+            <a:t>openssl pkcs12 -export -out </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>#include "smartconfig.h"</a:t>
+            <a:t>myselfsigned.pfx</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="1">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> -inkey </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="1">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>myselfsigned.key</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="1">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> -in </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="1">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>myselfsigned.cer</a:t>
           </a:r>
         </a:p>
         <a:p>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900" b="1">
             <a:latin typeface="+mn-lt"/>
             <a:ea typeface="+mn-ea"/>
             <a:cs typeface="+mn-cs"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="1">
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>void ICACHE_FLASH_ATTR smartconfig_done(sc_status status, void *pdata)</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+            <a:t>创建自己的证书颁发机构</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="1">
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>{</a:t>
+            <a:t>(CA)</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+            <a:rPr lang="zh-CN" altLang="en-US" sz="800"/>
+            <a:t>使用自签名证书会有这样的问题：需要为每台设备中用到的每个证书设置相关的信任关系。有一个解决办法就是创建自己的证书颁发机构</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="800"/>
+            <a:t>(CA)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="800"/>
+            <a:t>根证书，然后基于该根证书创建别的证书。</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="800"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="800"/>
+            <a:t>这样一来就是自己扮演着</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="800"/>
+            <a:t>CA</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="800"/>
+            <a:t>，取代了商业性质的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="800"/>
+            <a:t>CA</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="800"/>
+            <a:t>。这样做的好处就是自己的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="800"/>
+            <a:t>CA</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="800"/>
+            <a:t>证书只需要在每台设备上安装一次即可。之后，设备会自动的信任基于</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="800"/>
+            <a:t>CA</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="800"/>
+            <a:t>根证书创建的证书。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="1">
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>    switch(status) </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+            <a:t>首先是创建私钥文件</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="1">
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>    {</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="1">
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>        case </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+            <a:t>跟之前的一样</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="1">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="1">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>：</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900" b="1">
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="1">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>openssl genrsa -out </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="1">
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
@@ -12343,80 +12655,120 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>SC_STATUS_WAIT</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+            <a:t>myCA.key</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="1">
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>://</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+            <a:t> 2048</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400" b="1">
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="1">
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>等待的状态</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+            <a:t>然后是创建证书：</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900" b="1">
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="1">
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>(</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+            <a:t>openssl req -x509 -new -key </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="1">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>没收到信息时等待</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+            <a:t>myCA.key</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="1">
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>)</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>                   os_printf("SC_STATUS_WAIT\n");</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>                   break;</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>        case </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+            <a:t> -out </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="1">
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
@@ -12424,48 +12776,545 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>SC_STATUS_FIND_CHANNEL</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+            <a:t>myCA.cer</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="1">
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>://</a:t>
+            <a:t> -days 730 -subj /CN="Simtec cwm CA"</a:t>
           </a:r>
         </a:p>
         <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="700" b="0">
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>                    os_printf("SC_STATUS_FIND_CHANNEL\n");</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+            <a:t>上面创建的证书</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="700" b="0">
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>                     break;</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+            <a:t>(myCA.cer)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="700" b="0">
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>        case </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+            <a:t>可以公开发布出去，并安装在</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="700" b="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>iOS</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="700" b="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>或者其它</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="700" b="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>OS</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="700" b="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>上，以此当做内置的受信任根</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="700" b="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>CA</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="700" b="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>。自制的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="700" b="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>CA</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="700" b="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>证书存储在 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="700" b="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>General-&gt;Settings-&gt;Profile</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1200" b="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400" b="1">
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900" b="1">
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900" b="1">
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900" b="1">
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900" b="1">
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900" b="1">
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900" b="1">
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="700" b="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>其中私钥文件</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="700" b="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>(myCA.key)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="700" b="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>只用是再创建新的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="700" b="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>SSL</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="700" b="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>证书时使用。</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="700" b="0">
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900" b="1">
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="1">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>上面的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="1">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>CA</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="1">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>创建好之后，我们可以基于该证书创建许多证书。注意，这里多了一个步骤：必须创建一个</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="1">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>CSR(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="1">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>客户端证书请求文件</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="1">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>)——</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="1">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>就像购买商业的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="1">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>SSL</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="1">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>证书一样。</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900" b="1">
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="1">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>首先需要创建一个私钥文件：</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900" b="1">
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="1">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>openssl genrsa -out </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="1">
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
@@ -12473,268 +13322,104 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>SC_STATUS_GETTING_SSID_PSWD</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+            <a:t>mycert1.key</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="1">
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>://</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+            <a:t> 2048</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900" b="1">
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="1">
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>获取到</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+            <a:t>然后是创建</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="1">
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>ssid</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+            <a:t>CSR:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="1">
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>和密码</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>                     </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>os_printf("SC_STATUS_GETTING_SSID_PSWD\n");</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>                     </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>sc_type *type = pdata;</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>                     </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>if (*type == SC_TYPE_ESPTOUCH)</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>                     </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>{</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>                     </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>   os_printf("SC_TYPE:SC_TYPE_ESPTOUCH\n");</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>        </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>             </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>}</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>                </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>    else</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>                     </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>{</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>                        os_printf("SC_TYPE:SC_TYPE_AIRKISS\n");</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>                     </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>}</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>                     </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>break;</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>        case </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+            <a:t>openssl req -new -out </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="1">
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
@@ -12742,206 +13427,155 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>SC_STATUS_LINK</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+            <a:t>mycert1.req</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="1">
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>:    //</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+            <a:t> -key </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="1">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>将</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+            <a:t>mycert1.key</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="1">
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>smarconfig</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+            <a:t> -subj /CN=www.mysite.com</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900" b="1">
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="1">
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>获取到的密码</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+            <a:t>接着用这个</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="1">
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>ssid</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+            <a:t>CSR</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="1">
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>放到</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+            <a:t>创建证书：</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900" b="1">
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="1">
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>station</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+            <a:t>openssl x509 -req -in </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="1">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>进行连接</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+            <a:t>mycert1.req</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="1">
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>                    </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>os_printf("SC_STATUS_LINK\n");</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>                    </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>struct station_config *sta_conf = pdata;</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>                    </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>wifi_station_set_config(sta_conf);</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>                    </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>//</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>wifi_station_disconnect();</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>                    </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>wifi_station_connect();</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>                    </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>break;</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>        case </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+            <a:t> -out </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="1">
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
@@ -12949,514 +13583,258 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>SC_STATUS_LINK_OVER</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+            <a:t>mycert1.cer</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="1">
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>://</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>连接完成</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>                     </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>os_printf("SC_STATUS_LINK_OVER\n");</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>                     </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>if (pdata != NULL)</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>                     </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>{</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>                     </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>     </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>uint8 phone_ip[4] = {0};</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>                     </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>     </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>os_memcpy(phone_ip, (uint8*)pdata, 4);//</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>汇报发起</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>smartconfig</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>的手机</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>ip</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>                     </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>     </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>os_printf("Phone ip: %d.%d.%d.%d\n",phone_ip[0],phone_ip[1],phone_ip[2],phone_ip[3]);</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>                     </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>}</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>                     </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>  </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+            <a:t> -CAkey </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="1">
               <a:solidFill>
-                <a:srgbClr val="FF0000"/>
+                <a:srgbClr val="C00000"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>smartconfig_stop();</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
-              <a:effectLst/>
+            <a:t>myCA.key</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="1">
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>                     </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
-              <a:effectLst/>
+            <a:t> -CA </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="1">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>  </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+            <a:t>myCA.cer</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="1">
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>break;</a:t>
+            <a:t> -days 365 -CAcreateserial -CAserial serial</a:t>
           </a:r>
         </a:p>
         <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="800" b="0">
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>            }</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+            <a:t>这里创建的证书</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="800" b="0">
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>}</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+            <a:t>(mycert.cer)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="800" b="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>可以安装在一台</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="800" b="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>web</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="800" b="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>服务器上，并且已经安装了相关</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="800" b="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>CA</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="800" b="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>证书的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="800" b="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>iOS</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="800" b="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>设备都可以访问该</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="800" b="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>web</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="800" b="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>服务器。</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="800" b="0">
             <a:latin typeface="+mn-lt"/>
             <a:ea typeface="+mn-ea"/>
             <a:cs typeface="+mn-cs"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>void ICACHE_FLASH_ATTR done_cb1(void)</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>{</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>       wifi_station_disconnect();//</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>关掉所有连接</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>       </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>smartconfig_start</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> ( smartconfig_done );//</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>打开</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>smartconfig</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>功能</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>,</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>当状态改变的时候会执行回调函数</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>}</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900" b="1">
             <a:latin typeface="+mn-lt"/>
             <a:ea typeface="+mn-ea"/>
             <a:cs typeface="+mn-cs"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>void user_init()</a:t>
-          </a:r>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900" b="1">
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>{</a:t>
-          </a:r>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900" b="1">
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>    uart_init(9600,9600);</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>    </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>wifi_set_opmode(0x01);</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>    </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>system_init_done_cb(done_cb1);</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>}</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900" b="1">
             <a:latin typeface="+mn-lt"/>
             <a:ea typeface="+mn-ea"/>
             <a:cs typeface="+mn-cs"/>
@@ -13464,6 +13842,53 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>26277</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>91966</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>146210</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1025" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="26277" y="3337035"/>
+          <a:ext cx="1228395" cy="973899"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -13778,7 +14203,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="U56" sqref="U56"/>
     </sheetView>
   </sheetViews>
@@ -13799,21 +14224,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A22"/>
+  <dimension ref="A21"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="16384" width="9" style="3"/>
+    <col min="1" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" s="1" customFormat="1" ht="18.75">
-      <c r="A1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" s="2" customFormat="1" ht="18.75"/>
+    <row r="21" s="1" customFormat="1" ht="18.75"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/linux网络安全 .xlsx
+++ b/linux网络安全 .xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="750" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="750" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="表链的概念" sheetId="2" r:id="rId1"/>
     <sheet name="iptables规则" sheetId="5" r:id="rId2"/>
     <sheet name="openssl证书" sheetId="11" r:id="rId3"/>
+    <sheet name="子网掩码" sheetId="12" r:id="rId4"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
@@ -13894,6 +13895,2682 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>51289</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>79861</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>670035</xdr:colOff>
+      <xdr:row>146</xdr:row>
+      <xdr:rowOff>111672</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Text Box 1"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="51289" y="79861"/>
+          <a:ext cx="9499987" cy="25033294"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>IP</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>地址被用来给</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>Internet</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>上的电脑一个编号。大家日常见到的情况是每台联网的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>PC</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>上都需要有</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>IP</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>地址，才能正常通信。我们可以把“个人电脑”比作“一台电话”，那么“</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>IP</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>地址”就相当于“电话号码”，而</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>Internet</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>中的路由器，就相当于电信局的“程控式交换机”。 </a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>IP</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>地址是一个</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>32</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>位的二进制数，通常被分割为</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>4</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>个“</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>8</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>位二进制数”（也就是</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>4</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>个字节）。</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>IP</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>地址通常用“点分十进制”表示成（</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>a.b.c.d</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>）的形式，其中，</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>a,b,c,d</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>都是</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>0~255</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>之间的十进制整数。例：点分十进</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>IP</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>地址（</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>100.4.5.6</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>），实际上是</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>32</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>位二进制数（</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>01100100.00000100.00000101.00000110</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>）。</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="1"/>
+            <a:t>A</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="1"/>
+            <a:t>类，</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="1"/>
+            <a:t>B</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="1"/>
+            <a:t>类，</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="1"/>
+            <a:t>C</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="1"/>
+            <a:t>类</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900" b="1"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900" b="1"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900" b="1"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900" b="1"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900" b="1"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900" b="1"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900" b="1"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900" b="1"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="1"/>
+            <a:t>特殊</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>D</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>类 以</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>1110</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>开始 用于组播 </a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>E</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>类 以</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>11110</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>开始 用于科研保留</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>范围上划分有些要注意的： </a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>A</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>类 从</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>1.0.0.0 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>到</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>126.255.255.255 </a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>B</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>类 从</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>128.0.0.0</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>到</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>191.255.255.255 </a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>C</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>类 从</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>192.0.0.0</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>到</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>223.255.255.255 </a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>其中</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>127.x.x.x</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>段地址空间是被保留的回环地址</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>IP</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>地址包含 网络地址</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>+</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>主机地址，即</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>IP</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>地址</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>=</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>网络地址</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>+</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>主机地址</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>网络地址</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>: </a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>、如果是</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>192</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>C</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>段地址，那么，网络地址就是：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>192.168.1.0</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>，地址掩码是：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>255.255.255.0</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>。 </a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>、如果地址掩码是：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>255.255.0.0</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>，那么网络地址就是：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>192.168.0.0</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>。 </a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>3</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>、网络地址很大一部分是由地址掩码决定的。 </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t/>
+          </a:r>
+          <a:br>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>主机地址：</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>如</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>IP</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>地址是</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>202.112.14.137</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>，掩码是</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>255.255.255.224 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>，</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>网络地址是</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>202.112.14.128</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>，子网号是</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>128</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>主机地址是</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>202.112.14.137 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>。</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="1"/>
+            <a:t>子网掩码</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>子网掩码</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>(subnet mask)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>又叫网络掩码、地址掩码、子网络遮罩，它是一种用来指明一个</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>IP</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>地址的哪些位标识的是主机所在的子网，以及哪些位标识的是主机的位掩码。</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>子网掩码不能单独存在，它必须结合</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>IP</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>地址一起使用。子网掩码只有一个作用，就是将某个</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>IP</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>地址划分成网络地址和主机地址两部分。 </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t/>
+          </a:r>
+          <a:br>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>子网掩码是一个</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>32</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>位地址，用于屏蔽</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>IP</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>地址的一部分以区别网络标识和主机标识，并说明该</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>IP</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>地址是在局域网上，还是在远程网上。</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>子网掩码</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>——</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>屏蔽一个</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>IP</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>地址的网络部分的“全</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>1”</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>比特模式。对于</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>A</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>类地址来说，默认的子网掩码是</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>255.0.0.0</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>；对于</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>B</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>类地址来说默认的子网掩码是</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>255.255.0.0</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>；对于</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>C</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>类地址来说默认的子网掩码是</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>255.255.255.0</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>。</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>通过子网掩码，就可以判断两个</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>IP</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>在不在一个局域网内部。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>子网掩码可以看出有多少位是网络号，有多少位是主机号</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="1"/>
+            <a:t>网关</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>网关</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>(Gateway)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>又称网间连接器、协议转换器。默认网关在网络层上以实现网络互连，是最复杂的网络互连设备，仅用于两个高层协议不同的网络互连。网关的结构也和路由器类似，不同的是互连层。网关既可以用于广域网互连，也可以用于局域网互连，网关实质上是一个网络通向其他网络的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>IP</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>地址。</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>比如有网络</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>A</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>和网络</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>B</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>，网络</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>A</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>IP</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>地址范围为“</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>192.168.1.1~192. 168.1.254”</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>，子网掩码为</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>255.255.255.0</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>；网络</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>B</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>IP</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>地址范围为“</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>192.168.2.1~192.168.2.254”</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>，子网掩码为</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>255.255.255.0</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>在没有路由器的情况下，两个网络之间是不能进行</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>TCP/IP</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>通信的，即使是两个网络连接在同一台交换机（或集线器）上，</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>TCP/IP</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>协议也会根据子网掩码（</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>255.255.255.0</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>）判定两个网络中的主机处在不同的网络里。而要实现这两个网络之间的通信，则必须通过网关。如果网络</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>A</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>中的主机发现数据包的目的主机不在本地网络中，就把数据包转发给它自己的网关，再由网关转发给网络</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>B</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>的网关，网络</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>B</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>的网关再转发给网络</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>B</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>的某个主机。</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>所以说，只有设置好网关的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>IP</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>地址，</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>TCP/IP</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>协议才能实现不同网络之间的相互通信。那么这个</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>IP</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>地址是哪台机器的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>IP</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>地址呢？网关的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>IP</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>地址是具有路由功能的设备的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>IP</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>地址，具有路由功能的设备有路由器、启用了路由协议的服务器（实质上相当于一台路由器）、代理服务器（也相当于一台路由器）。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900" b="1"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="1"/>
+            <a:t>广播地址</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="1"/>
+            <a:t>(Broadcast Address)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>广播地址</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>(Broadcast Address)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>是专门用于同时向网络中所有工作站进行发送的一个地址。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>在使用</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>TCP/IP </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>协议的网络中，主机标识段</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>host ID </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>为全</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>1 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>IP </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>地址为广播地址，广播的分组传送给</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>host ID</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>段所涉及的所有计算机。例如，对于</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>10.1.1.0 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>（</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>255.255.255.0 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>）网段，其广播地址为</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>10.1.1.255 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>（</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>255 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>即为</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>2 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>进制的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>11111111 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>），当发出一个目的地址为</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>10.1.1.255 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>的分组（封包）时，它将被分发给该网段上的所有计算机。</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="1"/>
+            <a:t>根据</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="1"/>
+            <a:t>IP</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="1"/>
+            <a:t>地址和子网掩码求 网络地址 和 广播地址</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>将</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>IP</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>地址和子网掩码换算为二进制，子网掩码连续全</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>的是网络地址</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="1"/>
+            <a:t>IP</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="1"/>
+            <a:t>地址和子网掩码进行与运算，结果是网络地址</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>（即主机号全</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>0</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>是网络地址）</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>将运算结果中的网络地址不变，</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="1"/>
+            <a:t>主机地址变为</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="1"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="1"/>
+            <a:t>，结果就是广播地址</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>地址范围就是含在本网段内的所有主机</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>网络地址</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>+1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>即为第一个主机地址，广播地址</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>-1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>即为最后一个主机地址， </a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>由此可以看出地址范围是： 网络地址</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>+1 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>至 广播地址</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>-1</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>主机的数量</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>=2^</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>二进制位数的主机</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>-2</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>减</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>是因为主机不包括网络地址和广播地址。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="1"/>
+            <a:t>示例</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>一个主机的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>IP</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>地址是</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>202.112.14.137</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>，掩码是</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>255.255.255.224</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>，要求计算这个主机所在网络的网络地址和广播地址</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>255.255.255.224 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>转二进制：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>11111111 11111111 11111111 11100000</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>202.112.14.137 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="900">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>转二进制：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>11001010 01110000 00001110 10001001</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="zh-CN" sz="900">
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100" b="1">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>根据子网掩码可以分割网络号</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>+</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100" b="1">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>主机号</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>网络号有</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>27</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>位，主机号有</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>5</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>位</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>网络地址就是：把</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>IP</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>地址转成二进制和子网掩码进行与运算</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>IP</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>地址</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>&amp;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>子网掩码</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>11001010 01110000 00001110 10001001</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>11111111 11111111 11111111 11100000</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>------------------------------------------------------</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>11001010 01110000 00001110 10000000</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>即：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>202.112.14.128</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="1"/>
+            <a:t>计算广播地址</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>广播地址：网络地址的主机位全部变成</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>1 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>，</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>10011111 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>即</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>159 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>即：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>202.112.14.159</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="1"/>
+            <a:t>主机数</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>主机号有</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>5</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>位，那么这个地址中，就只能有</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>25−2=3025−2=30</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>个主机</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>因为其中全</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>0</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>作为网络地址，全</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>作为广播地址</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="1"/>
+            <a:t>根据每个网络的主机数量进行子网地址的规划和计算子网掩码</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>这也可按上述原则进行计算。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>比如一个子网有</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>10</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>台主机，那么对于这个子网需要的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>IP</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>地址是 </a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>10</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>＋</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>＋</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>＋</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>＝</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>13 </a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>注意：加的第一个</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>是指这个网络连接时所需的网关地址，接着的两个</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>分别是指网络地址和广播地址。 </a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>因为</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>13</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>小于</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>16</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>（</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>16</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>等于</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>4</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>次方），所以主机位为</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>4</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>位。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>而 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>256</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>－</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>16</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>＝</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>240 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>所以该子网掩码为</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>255.255.255.240</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>如果一个子网有</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>14</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>台主机，不少人常犯的错误是：依然分配具有</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>16</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>个地址空间的子网，而忘记了给网关分配地址。这样就错误了，因为： </a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>14</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>＋</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>＋</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>＋</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>＝</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>17 </a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>17.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>大于</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>16</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>，所以我们只能分配具有</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>32</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>个地址（</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>32</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>等于</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>5</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>次方）空间的子网。这时子网掩码为：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>255.255.255.224</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>5</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>） 主机的数量</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="1"/>
+            <a:t>206 110 4 0/18</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="1"/>
+            <a:t>被划分成</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="1"/>
+            <a:t>16</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="1"/>
+            <a:t>个子网，每个子网掩码？</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>（划分成</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>16</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>个子网，根据子网掩码</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>/18</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>就表示有</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>18</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>个</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>，就要从的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>IP</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>地址的主机位借</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>4</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>位来用作网络位！）</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>子网掩码是</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>255.255.252.0</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>每个子网可以容纳的主机数是</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>1024</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>台。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>下面我来给你详细解答：</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>206.110.1.0 /18 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>由最后的那个</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>/18</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>，我们可以知道这个</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>IP</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>已经规定了它的网络位是</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>18</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>位，它默认的子网掩码就是</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>11111111.11111111.11 | 000000.00000000(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>其中</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>代表网络位</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>,0</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>代表主机位</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>可以看出我们可以操作的位数就是后面的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>14</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>个</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>0</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>，也就是说我们可以在地面划分出几位作为子网的网络位，进而来划分子网。要求是切分成</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>16</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>个子网，我们知道</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>4</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>次方刚好等于</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>16</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>，这就说明子网网络位的位数是</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>4</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>位，那</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>14-4=10</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>就是子网的主机位。所以上面我写的那串二进制就可以变成：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>11111111.11111111.111111 | 00.00000000(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>其中</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>代表网络位</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>,0</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>代表主机位</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="1"/>
+            <a:t>ip</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="1"/>
+            <a:t>段</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="1"/>
+            <a:t>/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="1"/>
+            <a:t>数字</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="1"/>
+            <a:t>-</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="1"/>
+            <a:t>如</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="1"/>
+            <a:t>192.168.0.1/24</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="1"/>
+            <a:t>是什么意思</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="1"/>
+            <a:t>?</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>后面这个数字标示了我们的网络号的位数，也就是子网掩码中前多少号为</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>1</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>129.168.1.1 /24 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>这个</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>24</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>就是告诉我们网络号是</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>24</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>位</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>也就相当于告诉我们了</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>子网掩码是：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>11111111 11111111 11111111 00000000</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>即：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>255.255.255.0</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>172.16.10.33/27 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>中的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>/27</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>也就是说子网掩码是</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>255.255.255.224 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>即</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>27</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>个全</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>1</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>11111111 11111111 11111111 11100000</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900" b="1">
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900" b="1">
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900" b="1">
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900" b="1">
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>26276</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>85394</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>492673</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>57562</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1025" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="26276" y="2988877"/>
+          <a:ext cx="5248604" cy="891823"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>26277</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>59121</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>16875</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>65688</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1026" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="26277" y="742293"/>
+          <a:ext cx="4089632" cy="2056085"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
@@ -14226,7 +16903,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="21" s="1" customFormat="1" ht="18.75"/>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>

--- a/linux网络安全 .xlsx
+++ b/linux网络安全 .xlsx
@@ -4,13 +4,15 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="750" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="750" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="表链的概念" sheetId="2" r:id="rId1"/>
     <sheet name="iptables规则" sheetId="5" r:id="rId2"/>
     <sheet name="openssl证书" sheetId="11" r:id="rId3"/>
     <sheet name="子网掩码" sheetId="12" r:id="rId4"/>
+    <sheet name="brcrl网桥" sheetId="13" r:id="rId5"/>
+    <sheet name="network interfase" sheetId="16" r:id="rId6"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
@@ -669,8 +671,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="3429000" y="1066800"/>
-            <a:ext cx="1447800" cy="295276"/>
+            <a:off x="3362325" y="742949"/>
+            <a:ext cx="1447800" cy="857251"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -700,7 +702,23 @@
           <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
           <a:lstStyle/>
           <a:p>
-            <a:pPr algn="l"/>
+            <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
             <a:r>
               <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
                 <a:solidFill>
@@ -715,7 +733,23 @@
                   <a:srgbClr val="FF0000"/>
                 </a:solidFill>
               </a:rPr>
-              <a:t>地址转换</a:t>
+              <a:t>网络地址转换（</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Network Address Translation</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1200" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>）</a:t>
             </a:r>
           </a:p>
         </xdr:txBody>
@@ -730,8 +764,8 @@
         </xdr:nvCxnSpPr>
         <xdr:spPr>
           <a:xfrm rot="5400000">
-            <a:off x="3879057" y="1535907"/>
-            <a:ext cx="447675" cy="100012"/>
+            <a:off x="3964782" y="1688307"/>
+            <a:ext cx="209551" cy="33337"/>
           </a:xfrm>
           <a:prstGeom prst="straightConnector1">
             <a:avLst/>
@@ -1163,7 +1197,7 @@
                   <a:srgbClr val="FF0000"/>
                 </a:solidFill>
               </a:rPr>
-              <a:t>处理在防火墙长上被转发的数据流</a:t>
+              <a:t>处理在防火墙上被转发的数据流</a:t>
             </a:r>
             <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1200">
               <a:solidFill>
@@ -2282,6 +2316,570 @@
         </xdr:spPr>
       </xdr:pic>
     </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="矩形 40"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="5743574"/>
+          <a:ext cx="13582650" cy="2581275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>地址转换</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>(NAT)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>就是：路由器将私有地址转换为公有地址使数据包能够发到因特网上，同时从因特网上接收数据包时，将公用地址转换为私有地址。 </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1200">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>                                          </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>网络地址转换（</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Network Address Translation</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>或简称</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>NAT</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>，也叫做网络掩蔽或者</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>IP</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>掩蔽）是一种在</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>IP</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>数据包通过路由器或防火墙时重写源</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>IP</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>地址或</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>和目的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>IP</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>地址的技术。</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1200">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1200">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1200">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>源地址转换：源地址转换是内网地址向外访问时，发起访问的内网</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ip</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>地址转换为指定的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ip</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>地址（可指定具体的服务以及相应的端口或端口范围），这可以使内网中使用保留</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ip</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>地址的主机访问外部网络，即内网的多部主机可以通过一个有效的公网</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ip</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>地址访问外部网络。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>A</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>公司拥有多个公网</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>IP</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>（</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>60.191.82.105-107</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>），</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>A</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>公司希望内部用户（</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>IP</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>为</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>192.168.1.50</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>）使用某个特定的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>IP</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>（</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>60.191.82.107</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>）访问互联网，则需在出口路由设备上需要配置源地址转换。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -10001,7 +10599,7 @@
                         <a:srgbClr val="FF0000"/>
                       </a:solidFill>
                     </a:rPr>
-                    <a:t>从局域网来是数据</a:t>
+                    <a:t>从局域网来的数据</a:t>
                   </a:r>
                 </a:p>
               </xdr:txBody>
@@ -16571,6 +17169,816 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>51289</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>79861</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>453258</xdr:colOff>
+      <xdr:row>146</xdr:row>
+      <xdr:rowOff>111672</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Text Box 1"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="51289" y="79861"/>
+          <a:ext cx="11374769" cy="25130186"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900" b="1">
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>257807</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>13138</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="11" name="组合 10"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9822221" cy="3258207"/>
+          <a:chOff x="0" y="0"/>
+          <a:chExt cx="9822221" cy="3258207"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="1025" name="Picture 1"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="4419987" cy="3258207"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="1">
+            <a:noFill/>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd type="none" w="med" len="med"/>
+          </a:ln>
+          <a:effectLst/>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="1026" name="Picture 2"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="5366844" y="367862"/>
+            <a:ext cx="4455377" cy="2666999"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="1">
+            <a:noFill/>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd type="none" w="med" len="med"/>
+          </a:ln>
+          <a:effectLst/>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="7" name="直接箭头连接符 6"/>
+          <xdr:cNvCxnSpPr>
+            <a:endCxn id="1026" idx="1"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3908534" y="1340069"/>
+            <a:ext cx="1458310" cy="361293"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:tailEnd type="arrow"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="9" name="矩形 8"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6772603" y="2115207"/>
+            <a:ext cx="1136431" cy="151086"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="10" name="矩形 9"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6787055" y="2280745"/>
+            <a:ext cx="1136431" cy="130065"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>39415</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>52822</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>32845</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1027" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="3284484"/>
+          <a:ext cx="6201374" cy="4158154"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>144518</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>75219</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>85397</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1028" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="7383518"/>
+          <a:ext cx="6223771" cy="4893879"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>78828</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>82840</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>144517</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1029" name="Picture 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="12270828"/>
+          <a:ext cx="6231392" cy="2969172"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>51289</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>79861</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>670035</xdr:colOff>
+      <xdr:row>146</xdr:row>
+      <xdr:rowOff>111672</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Text Box 1"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="51289" y="79861"/>
+          <a:ext cx="9534146" cy="25130186"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1050" b="1"/>
+            <a:t>linux</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1050" b="1"/>
+            <a:t>网络的重启</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1050" b="1"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="1"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="1"/>
+            <a:t>、</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="1"/>
+            <a:t>network manager </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="1"/>
+            <a:t>服务</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>这是通过命令行方式重启网络最简单的方法。它相当于是通过图形化界面重启网络（重启 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>Network-Manager </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>服务）。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>sudo service network-manager restart </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>此时，网络图标会消失一会儿然后重新显示。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="1"/>
+            <a:t>2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="1"/>
+            <a:t>、</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="1"/>
+            <a:t>systemd</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>service </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>命令仅仅是这个方式的一个封装（同样的也是 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>init.d </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>系列脚本和 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>Upstart </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>相关命令的封装）。</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>systemctl </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>命令的功能远多于 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>service </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>命令。通常我更喜欢使用这个命令。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>sudo systemctl restart NetworkManager.service </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>这时，网络图标又会消失一会儿。 如果你想了解 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>systemctl </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>的其他选项</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>, </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>可以参考 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>man </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>帮助文档。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="1"/>
+            <a:t>3</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="1"/>
+            <a:t>、</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="1"/>
+            <a:t>nmcli</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>这是 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>Linux </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>上可以管理网络的另一个工具。这是一个功能强大而且实用的工具。很多系统管理员都喜欢使用该工具，因为它非常容易使用。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>这种方法有两个操作步骤：关闭网络，再开启网络。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>sudo nmcli networking off </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>这样就会关闭网络，网络图标会消失。接下来，再开启网络：</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>sudo nmcli networking on </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>你可以通过 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>man </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>帮助文档了解 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>nmcli </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>的更多用法。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="1"/>
+            <a:t>4</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="1"/>
+            <a:t>、</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="1"/>
+            <a:t>ifup &amp; ifdown</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>这两个命令直接操作网口，切换网口是否可以收发包的状态。这是 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+              <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id=""/>
+            </a:rPr>
+            <a:t>Linux </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900">
+              <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id=""/>
+            </a:rPr>
+            <a:t>中最应该了解的网络命令</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t> 之一。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>使用 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>ifdown </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>关闭所有网口，再使用 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>ifup </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>重新启用网口。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>通常推荐的做法是将这两个命令一起使用。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>sudo ifdown -a &amp;&amp; sudo ifup -a </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>注意：这种方法不会让网络图标从系统托盘中消失，另外，各种网络连接也会断。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900" b="1">
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
@@ -16880,7 +18288,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="I16"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="U56" sqref="U56"/>
     </sheetView>
   </sheetViews>
@@ -16903,7 +18311,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A21"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
@@ -16925,7 +18333,51 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="21" s="1" customFormat="1" ht="18.75"/>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="21" s="1" customFormat="1" ht="18.75"/>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A21"/>
+  <sheetViews>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>

--- a/linux网络安全 .xlsx
+++ b/linux网络安全 .xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="750" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="750" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="表链的概念" sheetId="2" r:id="rId1"/>
@@ -17243,6 +17243,3307 @@
             <a:cs typeface="+mn-cs"/>
           </a:endParaRPr>
         </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900" b="1">
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900" b="1">
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900" b="1">
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900" b="1">
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900" b="1">
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900" b="1">
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900" b="1">
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900" b="1">
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900" b="1">
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900" b="1">
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900" b="1">
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900" b="1">
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900" b="1">
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900" b="1">
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900" b="1">
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900" b="1">
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900" b="1">
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900" b="1">
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900" b="1">
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900" b="1">
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900" b="1">
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900" b="1">
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900" b="1">
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900" b="1">
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900" b="1">
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900" b="1">
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900" b="1">
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900" b="1">
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900" b="1">
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900" b="1">
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900" b="1">
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900" b="1">
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900" b="1">
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900" b="1">
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900" b="1">
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900" b="1">
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900" b="1">
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900" b="1">
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900" b="1">
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900" b="1">
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900" b="1">
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900" b="1">
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900" b="1">
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900" b="1">
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900" b="1">
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900" b="1">
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900" b="1">
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900" b="1">
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900" b="1">
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900" b="1">
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900" b="1">
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900" b="1">
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900" b="1">
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900" b="1">
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900" b="1">
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900" b="1">
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900" b="1">
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900" b="1">
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900" b="1">
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900" b="1">
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900" b="1">
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900" b="1">
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900" b="1">
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900" b="1">
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900" b="1">
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900" b="1">
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900" b="1">
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900" b="1">
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900" b="1">
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900" b="1">
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900" b="1">
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900" b="1">
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900" b="1">
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900" b="1">
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900" b="1">
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900" b="1">
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900" b="1">
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900" b="1">
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900" b="1">
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900" b="1">
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900" b="1">
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900" b="1">
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900" b="1">
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900" b="1">
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900" b="1">
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900" b="1">
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900" b="1">
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900" b="1">
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900" b="1">
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900" b="1">
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900" b="1">
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900" b="1">
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900" b="1">
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900" b="1">
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900" b="1">
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900" b="1">
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900" b="1">
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900" b="1">
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900" b="1">
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900" b="1">
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900" b="1">
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900" b="1">
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900" b="1">
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900" b="1">
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900" b="1">
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900" b="1">
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900" b="1">
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900" b="1">
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900" b="1">
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900" b="1">
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="1">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>修改</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="1">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>/etc/network/interfaces</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900" b="1">
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="1">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>auto ens33</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="1">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>iface ens33 inet manual</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900" b="1">
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="1">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>手动设置静态网桥</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="1">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>IP</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="1">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>auto br0</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="1">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>iface br0 inet static</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="1">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        address 192.168.0.200</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="1">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        broadcast 192.168.0.255</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="1">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        netmask 255.255.255.0</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="1">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        gateway 192.168.0.1</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="1">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        dns-nameserver 192.168.0.1</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="1">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        #</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="1">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>将</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="1">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ens33</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="1">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>这个网卡加入网桥，可以添加多个网卡</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900" b="1">
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="1" baseline="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="1">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>bridge_ports  ens33 </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900" b="1">
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="1">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>DHCP</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="1">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>自动</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="1">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="1">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>获取网桥</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="1">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>IP</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="1">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>地址</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900" b="1">
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-US" altLang="zh-CN" sz="900" b="1" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>auto br0</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-US" altLang="zh-CN" sz="900" b="1" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>iface br0 inet dhcp</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-US" altLang="zh-CN" sz="900" b="1" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>bridge_ports  ens33</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900" b="1">
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
@@ -17663,14 +20964,14 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1050" b="1"/>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="1"/>
             <a:t>linux</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1050" b="1"/>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="1"/>
             <a:t>网络的重启</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1050" b="1"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400" b="1"/>
         </a:p>
         <a:p>
           <a:r>
@@ -17971,6 +21272,893 @@
             <a:ea typeface="+mn-ea"/>
             <a:cs typeface="+mn-cs"/>
           </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="1"/>
+            <a:t>LINUX</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200" b="1"/>
+            <a:t>修改</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="1"/>
+            <a:t>DNS</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200" b="1"/>
+            <a:t>方法</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1200" b="1">
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="1"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="1"/>
+            <a:t>、</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="1"/>
+            <a:t>DNS</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="1"/>
+            <a:t>的临时修改。（重启后失效）</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>vim /etc/resolv.conf        //</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>打开</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>resolv.conf </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>文件</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>改为如下内容：</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>nameserver 8.8.8.8 #</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>修改成你的主</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>DNS</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>nameserver 8.8.7.7 #</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>修改成你的备用</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>DNS</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="1"/>
+            <a:t>2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="1"/>
+            <a:t>、</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="1"/>
+            <a:t>DNS</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="1"/>
+            <a:t>永久修改。（永久修改不失效）</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>vim /etc/resolvconf/resolv.conf.d/base //</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>打开</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>resolv.conf </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>文件</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>最后输入：</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>nameserver 8.8.8.8 #</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>修改成你的主</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>DNS</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>nameserver 8.8.7.7 #</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>修改成你的备用</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>DNS</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900" b="1">
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="1">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>PIPEWORK</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="1">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>的使用</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900" b="1">
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="1">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>#</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="1">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>安装</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="1">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>pipework</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="1">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>git clone https://github.com/jpetazzo/pipework</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="1">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>cp ~/pipework/pipework /usr/local/bin/</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="1">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>#</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="1">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>启动</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="1">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Docker</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="1">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>容器。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="1">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>docker run -itd --name test1 ubuntu /bin/bash</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="1">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>#</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="1">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>配置容器网络，并连到网桥</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="1">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>br0</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="1">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>上。网关在</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="1">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>IP</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="1">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>地址后面加</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="1">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>@</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="1">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>指定。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="1">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>#</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="1">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>若主机环境中存在</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="1">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>dhcp</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="1">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>服务器，也可以通过</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="1">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>dhcp</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="1">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>的方式获取</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="1">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>IP</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="1">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>#pipework br0 test1 dhcp</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="1">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>pipework br0 test1 10.10.101.150/24@10.10.101.254</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="1">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>#</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="1">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>将主机</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="1">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>eth0</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="1">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>桥接到</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="1">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>br0</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="1">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>上，并把</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="1">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>eth0</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="1">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="1">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>IP</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="1">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>配置在</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="1">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>br0</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="1">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>上。这里由于是远程操作，中间网络会断掉，所以放在一条命令中执行。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="1">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ip addr add 10.10.101.105/24 dev br0; \</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="1">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    ip addr del 10.10.101.105/24 dev eth0; \</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="1">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    brctl addif br0 eth0; \</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="1">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    ip route del default; \</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="1">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    ip route add default gw 10.10.101.254 dev br0</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -18288,7 +22476,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="I16"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="U56" sqref="U56"/>
     </sheetView>
   </sheetViews>
@@ -18355,7 +22543,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView topLeftCell="A58" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
@@ -18377,7 +22565,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A21"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
